--- a/bookkeeper0.xlsx
+++ b/bookkeeper0.xlsx
@@ -690,7 +690,7 @@
         <v>5.0</v>
       </c>
       <c r="F2" t="n">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c r="G2" t="n">
         <v>340.0</v>
@@ -731,7 +731,7 @@
         <v>14.0</v>
       </c>
       <c r="F3" t="n">
-        <v>0.0</v>
+        <v>3.0</v>
       </c>
       <c r="G3" t="n">
         <v>701.0</v>
@@ -772,7 +772,7 @@
         <v>3.0</v>
       </c>
       <c r="F4" t="n">
-        <v>0.0</v>
+        <v>3.0</v>
       </c>
       <c r="G4" t="n">
         <v>40.0</v>
@@ -813,7 +813,7 @@
         <v>4.0</v>
       </c>
       <c r="F5" t="n">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c r="G5" t="n">
         <v>27.0</v>
@@ -854,7 +854,7 @@
         <v>9.0</v>
       </c>
       <c r="F6" t="n">
-        <v>0.0</v>
+        <v>3.0</v>
       </c>
       <c r="G6" t="n">
         <v>146.0</v>
@@ -895,7 +895,7 @@
         <v>5.0</v>
       </c>
       <c r="F7" t="n">
-        <v>0.0</v>
+        <v>3.0</v>
       </c>
       <c r="G7" t="n">
         <v>86.0</v>
@@ -936,7 +936,7 @@
         <v>7.0</v>
       </c>
       <c r="F8" t="n">
-        <v>0.0</v>
+        <v>3.0</v>
       </c>
       <c r="G8" t="n">
         <v>85.0</v>
@@ -977,7 +977,7 @@
         <v>5.0</v>
       </c>
       <c r="F9" t="n">
-        <v>0.0</v>
+        <v>3.0</v>
       </c>
       <c r="G9" t="n">
         <v>35.0</v>
@@ -1018,7 +1018,7 @@
         <v>3.0</v>
       </c>
       <c r="F10" t="n">
-        <v>0.0</v>
+        <v>3.0</v>
       </c>
       <c r="G10" t="n">
         <v>13.0</v>
@@ -1059,7 +1059,7 @@
         <v>1.0</v>
       </c>
       <c r="F11" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="G11" t="n">
         <v>0.0</v>
@@ -1100,7 +1100,7 @@
         <v>5.0</v>
       </c>
       <c r="F12" t="n">
-        <v>0.0</v>
+        <v>3.0</v>
       </c>
       <c r="G12" t="n">
         <v>143.0</v>
@@ -1141,7 +1141,7 @@
         <v>4.0</v>
       </c>
       <c r="F13" t="n">
-        <v>0.0</v>
+        <v>3.0</v>
       </c>
       <c r="G13" t="n">
         <v>31.0</v>
@@ -1182,7 +1182,7 @@
         <v>4.0</v>
       </c>
       <c r="F14" t="n">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c r="G14" t="n">
         <v>8.0</v>
@@ -1223,7 +1223,7 @@
         <v>9.0</v>
       </c>
       <c r="F15" t="n">
-        <v>0.0</v>
+        <v>3.0</v>
       </c>
       <c r="G15" t="n">
         <v>630.0</v>
@@ -1264,7 +1264,7 @@
         <v>6.0</v>
       </c>
       <c r="F16" t="n">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c r="G16" t="n">
         <v>931.0</v>
@@ -1305,7 +1305,7 @@
         <v>2.0</v>
       </c>
       <c r="F17" t="n">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c r="G17" t="n">
         <v>3.0</v>
@@ -1346,7 +1346,7 @@
         <v>5.0</v>
       </c>
       <c r="F18" t="n">
-        <v>0.0</v>
+        <v>3.0</v>
       </c>
       <c r="G18" t="n">
         <v>23.0</v>
@@ -1387,7 +1387,7 @@
         <v>3.0</v>
       </c>
       <c r="F19" t="n">
-        <v>0.0</v>
+        <v>3.0</v>
       </c>
       <c r="G19" t="n">
         <v>5.0</v>
@@ -1428,7 +1428,7 @@
         <v>8.0</v>
       </c>
       <c r="F20" t="n">
-        <v>0.0</v>
+        <v>3.0</v>
       </c>
       <c r="G20" t="n">
         <v>43.0</v>
@@ -1469,7 +1469,7 @@
         <v>4.0</v>
       </c>
       <c r="F21" t="n">
-        <v>0.0</v>
+        <v>3.0</v>
       </c>
       <c r="G21" t="n">
         <v>12.0</v>
@@ -1510,7 +1510,7 @@
         <v>3.0</v>
       </c>
       <c r="F22" t="n">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c r="G22" t="n">
         <v>50.0</v>
@@ -1551,7 +1551,7 @@
         <v>12.0</v>
       </c>
       <c r="F23" t="n">
-        <v>0.0</v>
+        <v>3.0</v>
       </c>
       <c r="G23" t="n">
         <v>915.0</v>
@@ -1592,7 +1592,7 @@
         <v>7.0</v>
       </c>
       <c r="F24" t="n">
-        <v>0.0</v>
+        <v>3.0</v>
       </c>
       <c r="G24" t="n">
         <v>90.0</v>
@@ -1633,7 +1633,7 @@
         <v>9.0</v>
       </c>
       <c r="F25" t="n">
-        <v>0.0</v>
+        <v>3.0</v>
       </c>
       <c r="G25" t="n">
         <v>92.0</v>
@@ -1674,7 +1674,7 @@
         <v>6.0</v>
       </c>
       <c r="F26" t="n">
-        <v>0.0</v>
+        <v>3.0</v>
       </c>
       <c r="G26" t="n">
         <v>46.0</v>
@@ -1715,7 +1715,7 @@
         <v>4.0</v>
       </c>
       <c r="F27" t="n">
-        <v>0.0</v>
+        <v>3.0</v>
       </c>
       <c r="G27" t="n">
         <v>9.0</v>
@@ -1756,7 +1756,7 @@
         <v>4.0</v>
       </c>
       <c r="F28" t="n">
-        <v>0.0</v>
+        <v>3.0</v>
       </c>
       <c r="G28" t="n">
         <v>44.0</v>
@@ -1797,7 +1797,7 @@
         <v>4.0</v>
       </c>
       <c r="F29" t="n">
-        <v>0.0</v>
+        <v>3.0</v>
       </c>
       <c r="G29" t="n">
         <v>23.0</v>
@@ -1838,7 +1838,7 @@
         <v>6.0</v>
       </c>
       <c r="F30" t="n">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c r="G30" t="n">
         <v>127.0</v>
@@ -1879,7 +1879,7 @@
         <v>1.0</v>
       </c>
       <c r="F31" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="G31" t="n">
         <v>78.0</v>
@@ -1920,7 +1920,7 @@
         <v>2.0</v>
       </c>
       <c r="F32" t="n">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c r="G32" t="n">
         <v>1.0</v>
@@ -1961,7 +1961,7 @@
         <v>2.0</v>
       </c>
       <c r="F33" t="n">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c r="G33" t="n">
         <v>1.0</v>
@@ -2002,7 +2002,7 @@
         <v>2.0</v>
       </c>
       <c r="F34" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="G34" t="n">
         <v>106.0</v>
@@ -2043,7 +2043,7 @@
         <v>4.0</v>
       </c>
       <c r="F35" t="n">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c r="G35" t="n">
         <v>224.0</v>
@@ -2084,7 +2084,7 @@
         <v>4.0</v>
       </c>
       <c r="F36" t="n">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c r="G36" t="n">
         <v>397.0</v>
@@ -2125,7 +2125,7 @@
         <v>2.0</v>
       </c>
       <c r="F37" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="G37" t="n">
         <v>255.0</v>
@@ -2166,7 +2166,7 @@
         <v>1.0</v>
       </c>
       <c r="F38" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="G38" t="n">
         <v>193.0</v>
@@ -2207,7 +2207,7 @@
         <v>1.0</v>
       </c>
       <c r="F39" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="G39" t="n">
         <v>514.0</v>
@@ -2248,7 +2248,7 @@
         <v>1.0</v>
       </c>
       <c r="F40" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="G40" t="n">
         <v>204.0</v>
@@ -2289,7 +2289,7 @@
         <v>1.0</v>
       </c>
       <c r="F41" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="G41" t="n">
         <v>144.0</v>
@@ -2330,7 +2330,7 @@
         <v>1.0</v>
       </c>
       <c r="F42" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="G42" t="n">
         <v>98.0</v>
@@ -2371,7 +2371,7 @@
         <v>7.0</v>
       </c>
       <c r="F43" t="n">
-        <v>0.0</v>
+        <v>3.0</v>
       </c>
       <c r="G43" t="n">
         <v>25.0</v>
@@ -2412,7 +2412,7 @@
         <v>4.0</v>
       </c>
       <c r="F44" t="n">
-        <v>0.0</v>
+        <v>3.0</v>
       </c>
       <c r="G44" t="n">
         <v>87.0</v>
@@ -2453,7 +2453,7 @@
         <v>11.0</v>
       </c>
       <c r="F45" t="n">
-        <v>0.0</v>
+        <v>3.0</v>
       </c>
       <c r="G45" t="n">
         <v>280.0</v>
@@ -2494,7 +2494,7 @@
         <v>3.0</v>
       </c>
       <c r="F46" t="n">
-        <v>0.0</v>
+        <v>3.0</v>
       </c>
       <c r="G46" t="n">
         <v>82.0</v>
@@ -2535,7 +2535,7 @@
         <v>8.0</v>
       </c>
       <c r="F47" t="n">
-        <v>0.0</v>
+        <v>3.0</v>
       </c>
       <c r="G47" t="n">
         <v>35.0</v>
@@ -2576,7 +2576,7 @@
         <v>9.0</v>
       </c>
       <c r="F48" t="n">
-        <v>0.0</v>
+        <v>3.0</v>
       </c>
       <c r="G48" t="n">
         <v>110.0</v>
@@ -2617,7 +2617,7 @@
         <v>1.0</v>
       </c>
       <c r="F49" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="G49" t="n">
         <v>0.0</v>
@@ -2658,7 +2658,7 @@
         <v>3.0</v>
       </c>
       <c r="F50" t="n">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c r="G50" t="n">
         <v>11.0</v>
@@ -2699,7 +2699,7 @@
         <v>3.0</v>
       </c>
       <c r="F51" t="n">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c r="G51" t="n">
         <v>11.0</v>
@@ -2740,7 +2740,7 @@
         <v>6.0</v>
       </c>
       <c r="F52" t="n">
-        <v>0.0</v>
+        <v>3.0</v>
       </c>
       <c r="G52" t="n">
         <v>71.0</v>
@@ -2781,7 +2781,7 @@
         <v>6.0</v>
       </c>
       <c r="F53" t="n">
-        <v>0.0</v>
+        <v>3.0</v>
       </c>
       <c r="G53" t="n">
         <v>233.0</v>
@@ -2822,7 +2822,7 @@
         <v>3.0</v>
       </c>
       <c r="F54" t="n">
-        <v>0.0</v>
+        <v>3.0</v>
       </c>
       <c r="G54" t="n">
         <v>5.0</v>
@@ -2863,7 +2863,7 @@
         <v>2.0</v>
       </c>
       <c r="F55" t="n">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c r="G55" t="n">
         <v>5.0</v>
@@ -2904,7 +2904,7 @@
         <v>2.0</v>
       </c>
       <c r="F56" t="n">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c r="G56" t="n">
         <v>4.0</v>
@@ -2945,7 +2945,7 @@
         <v>3.0</v>
       </c>
       <c r="F57" t="n">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c r="G57" t="n">
         <v>11.0</v>
@@ -2986,7 +2986,7 @@
         <v>3.0</v>
       </c>
       <c r="F58" t="n">
-        <v>0.0</v>
+        <v>3.0</v>
       </c>
       <c r="G58" t="n">
         <v>4.0</v>
@@ -3027,7 +3027,7 @@
         <v>1.0</v>
       </c>
       <c r="F59" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="G59" t="n">
         <v>94.0</v>
@@ -3068,7 +3068,7 @@
         <v>1.0</v>
       </c>
       <c r="F60" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="G60" t="n">
         <v>42.0</v>
@@ -3109,7 +3109,7 @@
         <v>3.0</v>
       </c>
       <c r="F61" t="n">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c r="G61" t="n">
         <v>56.0</v>
@@ -3150,7 +3150,7 @@
         <v>2.0</v>
       </c>
       <c r="F62" t="n">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c r="G62" t="n">
         <v>67.0</v>
@@ -3191,7 +3191,7 @@
         <v>2.0</v>
       </c>
       <c r="F63" t="n">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c r="G63" t="n">
         <v>257.0</v>
@@ -3232,7 +3232,7 @@
         <v>3.0</v>
       </c>
       <c r="F64" t="n">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c r="G64" t="n">
         <v>139.0</v>
@@ -3273,7 +3273,7 @@
         <v>4.0</v>
       </c>
       <c r="F65" t="n">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c r="G65" t="n">
         <v>150.0</v>
@@ -3314,7 +3314,7 @@
         <v>3.0</v>
       </c>
       <c r="F66" t="n">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c r="G66" t="n">
         <v>181.0</v>
@@ -3355,7 +3355,7 @@
         <v>2.0</v>
       </c>
       <c r="F67" t="n">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c r="G67" t="n">
         <v>47.0</v>
@@ -3396,7 +3396,7 @@
         <v>5.0</v>
       </c>
       <c r="F68" t="n">
-        <v>0.0</v>
+        <v>3.0</v>
       </c>
       <c r="G68" t="n">
         <v>137.0</v>
@@ -3437,7 +3437,7 @@
         <v>3.0</v>
       </c>
       <c r="F69" t="n">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c r="G69" t="n">
         <v>152.0</v>
@@ -3478,7 +3478,7 @@
         <v>2.0</v>
       </c>
       <c r="F70" t="n">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c r="G70" t="n">
         <v>59.0</v>
@@ -3519,7 +3519,7 @@
         <v>2.0</v>
       </c>
       <c r="F71" t="n">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c r="G71" t="n">
         <v>152.0</v>
@@ -3560,7 +3560,7 @@
         <v>2.0</v>
       </c>
       <c r="F72" t="n">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c r="G72" t="n">
         <v>78.0</v>
@@ -3601,7 +3601,7 @@
         <v>1.0</v>
       </c>
       <c r="F73" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="G73" t="n">
         <v>37.0</v>
@@ -3642,7 +3642,7 @@
         <v>2.0</v>
       </c>
       <c r="F74" t="n">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c r="G74" t="n">
         <v>40.0</v>
@@ -3683,7 +3683,7 @@
         <v>2.0</v>
       </c>
       <c r="F75" t="n">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c r="G75" t="n">
         <v>40.0</v>
@@ -3724,7 +3724,7 @@
         <v>4.0</v>
       </c>
       <c r="F76" t="n">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c r="G76" t="n">
         <v>107.0</v>
@@ -3765,7 +3765,7 @@
         <v>4.0</v>
       </c>
       <c r="F77" t="n">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c r="G77" t="n">
         <v>78.0</v>
@@ -3806,7 +3806,7 @@
         <v>3.0</v>
       </c>
       <c r="F78" t="n">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c r="G78" t="n">
         <v>91.0</v>
@@ -3847,7 +3847,7 @@
         <v>4.0</v>
       </c>
       <c r="F79" t="n">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c r="G79" t="n">
         <v>123.0</v>
@@ -3888,7 +3888,7 @@
         <v>6.0</v>
       </c>
       <c r="F80" t="n">
-        <v>0.0</v>
+        <v>3.0</v>
       </c>
       <c r="G80" t="n">
         <v>414.0</v>
@@ -3929,7 +3929,7 @@
         <v>4.0</v>
       </c>
       <c r="F81" t="n">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c r="G81" t="n">
         <v>93.0</v>
@@ -3970,7 +3970,7 @@
         <v>1.0</v>
       </c>
       <c r="F82" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="G82" t="n">
         <v>72.0</v>
@@ -4011,7 +4011,7 @@
         <v>3.0</v>
       </c>
       <c r="F83" t="n">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c r="G83" t="n">
         <v>63.0</v>
@@ -4052,7 +4052,7 @@
         <v>4.0</v>
       </c>
       <c r="F84" t="n">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c r="G84" t="n">
         <v>130.0</v>
@@ -4093,7 +4093,7 @@
         <v>1.0</v>
       </c>
       <c r="F85" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="G85" t="n">
         <v>14.0</v>
@@ -4134,7 +4134,7 @@
         <v>5.0</v>
       </c>
       <c r="F86" t="n">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c r="G86" t="n">
         <v>243.0</v>
@@ -4175,7 +4175,7 @@
         <v>4.0</v>
       </c>
       <c r="F87" t="n">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c r="G87" t="n">
         <v>645.0</v>
@@ -4216,7 +4216,7 @@
         <v>5.0</v>
       </c>
       <c r="F88" t="n">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c r="G88" t="n">
         <v>390.0</v>
@@ -4257,7 +4257,7 @@
         <v>4.0</v>
       </c>
       <c r="F89" t="n">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c r="G89" t="n">
         <v>108.0</v>
@@ -4298,7 +4298,7 @@
         <v>1.0</v>
       </c>
       <c r="F90" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="G90" t="n">
         <v>41.0</v>
@@ -4339,7 +4339,7 @@
         <v>2.0</v>
       </c>
       <c r="F91" t="n">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c r="G91" t="n">
         <v>79.0</v>
@@ -4380,7 +4380,7 @@
         <v>3.0</v>
       </c>
       <c r="F92" t="n">
-        <v>0.0</v>
+        <v>3.0</v>
       </c>
       <c r="G92" t="n">
         <v>55.0</v>
@@ -4421,7 +4421,7 @@
         <v>2.0</v>
       </c>
       <c r="F93" t="n">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c r="G93" t="n">
         <v>51.0</v>
@@ -4462,7 +4462,7 @@
         <v>4.0</v>
       </c>
       <c r="F94" t="n">
-        <v>0.0</v>
+        <v>3.0</v>
       </c>
       <c r="G94" t="n">
         <v>203.0</v>
@@ -4503,7 +4503,7 @@
         <v>1.0</v>
       </c>
       <c r="F95" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="G95" t="n">
         <v>49.0</v>
@@ -4544,7 +4544,7 @@
         <v>1.0</v>
       </c>
       <c r="F96" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="G96" t="n">
         <v>50.0</v>
@@ -4585,7 +4585,7 @@
         <v>2.0</v>
       </c>
       <c r="F97" t="n">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c r="G97" t="n">
         <v>100.0</v>
@@ -4626,7 +4626,7 @@
         <v>1.0</v>
       </c>
       <c r="F98" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="G98" t="n">
         <v>138.0</v>
@@ -4667,7 +4667,7 @@
         <v>1.0</v>
       </c>
       <c r="F99" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="G99" t="n">
         <v>43.0</v>
@@ -4708,7 +4708,7 @@
         <v>1.0</v>
       </c>
       <c r="F100" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="G100" t="n">
         <v>42.0</v>
@@ -4749,7 +4749,7 @@
         <v>1.0</v>
       </c>
       <c r="F101" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="G101" t="n">
         <v>56.0</v>
@@ -4790,7 +4790,7 @@
         <v>2.0</v>
       </c>
       <c r="F102" t="n">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c r="G102" t="n">
         <v>163.0</v>
@@ -4831,7 +4831,7 @@
         <v>2.0</v>
       </c>
       <c r="F103" t="n">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c r="G103" t="n">
         <v>12222.0</v>
@@ -4872,7 +4872,7 @@
         <v>2.0</v>
       </c>
       <c r="F104" t="n">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c r="G104" t="n">
         <v>155.0</v>
@@ -4913,7 +4913,7 @@
         <v>1.0</v>
       </c>
       <c r="F105" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="G105" t="n">
         <v>43.0</v>
@@ -4954,7 +4954,7 @@
         <v>2.0</v>
       </c>
       <c r="F106" t="n">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c r="G106" t="n">
         <v>42.0</v>
@@ -4995,7 +4995,7 @@
         <v>3.0</v>
       </c>
       <c r="F107" t="n">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c r="G107" t="n">
         <v>155.0</v>
@@ -5036,7 +5036,7 @@
         <v>5.0</v>
       </c>
       <c r="F108" t="n">
-        <v>0.0</v>
+        <v>3.0</v>
       </c>
       <c r="G108" t="n">
         <v>148.0</v>
@@ -5077,7 +5077,7 @@
         <v>4.0</v>
       </c>
       <c r="F109" t="n">
-        <v>0.0</v>
+        <v>3.0</v>
       </c>
       <c r="G109" t="n">
         <v>126.0</v>
@@ -5118,7 +5118,7 @@
         <v>3.0</v>
       </c>
       <c r="F110" t="n">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c r="G110" t="n">
         <v>151.0</v>
@@ -5159,7 +5159,7 @@
         <v>1.0</v>
       </c>
       <c r="F111" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="G111" t="n">
         <v>45.0</v>
@@ -5200,7 +5200,7 @@
         <v>2.0</v>
       </c>
       <c r="F112" t="n">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c r="G112" t="n">
         <v>290.0</v>
@@ -5241,7 +5241,7 @@
         <v>2.0</v>
       </c>
       <c r="F113" t="n">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c r="G113" t="n">
         <v>35.0</v>
@@ -5282,7 +5282,7 @@
         <v>1.0</v>
       </c>
       <c r="F114" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="G114" t="n">
         <v>111.0</v>
@@ -5323,7 +5323,7 @@
         <v>2.0</v>
       </c>
       <c r="F115" t="n">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c r="G115" t="n">
         <v>36.0</v>
@@ -5364,7 +5364,7 @@
         <v>1.0</v>
       </c>
       <c r="F116" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="G116" t="n">
         <v>81.0</v>
@@ -5405,7 +5405,7 @@
         <v>1.0</v>
       </c>
       <c r="F117" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="G117" t="n">
         <v>27.0</v>
@@ -5446,7 +5446,7 @@
         <v>1.0</v>
       </c>
       <c r="F118" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="G118" t="n">
         <v>28.0</v>
@@ -5487,7 +5487,7 @@
         <v>2.0</v>
       </c>
       <c r="F119" t="n">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c r="G119" t="n">
         <v>30.0</v>
@@ -5528,7 +5528,7 @@
         <v>4.0</v>
       </c>
       <c r="F120" t="n">
-        <v>0.0</v>
+        <v>3.0</v>
       </c>
       <c r="G120" t="n">
         <v>600.0</v>
@@ -5569,7 +5569,7 @@
         <v>2.0</v>
       </c>
       <c r="F121" t="n">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c r="G121" t="n">
         <v>80.0</v>
@@ -5610,7 +5610,7 @@
         <v>2.0</v>
       </c>
       <c r="F122" t="n">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c r="G122" t="n">
         <v>30.0</v>
@@ -5651,7 +5651,7 @@
         <v>2.0</v>
       </c>
       <c r="F123" t="n">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c r="G123" t="n">
         <v>65.0</v>
@@ -5692,7 +5692,7 @@
         <v>2.0</v>
       </c>
       <c r="F124" t="n">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c r="G124" t="n">
         <v>40.0</v>
@@ -5733,7 +5733,7 @@
         <v>2.0</v>
       </c>
       <c r="F125" t="n">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c r="G125" t="n">
         <v>79.0</v>
@@ -5774,7 +5774,7 @@
         <v>3.0</v>
       </c>
       <c r="F126" t="n">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c r="G126" t="n">
         <v>165.0</v>
@@ -5815,7 +5815,7 @@
         <v>2.0</v>
       </c>
       <c r="F127" t="n">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c r="G127" t="n">
         <v>73.0</v>
@@ -5856,7 +5856,7 @@
         <v>6.0</v>
       </c>
       <c r="F128" t="n">
-        <v>0.0</v>
+        <v>3.0</v>
       </c>
       <c r="G128" t="n">
         <v>400.0</v>
@@ -5897,7 +5897,7 @@
         <v>2.0</v>
       </c>
       <c r="F129" t="n">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c r="G129" t="n">
         <v>78.0</v>
@@ -5938,7 +5938,7 @@
         <v>3.0</v>
       </c>
       <c r="F130" t="n">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c r="G130" t="n">
         <v>163.0</v>
@@ -5979,7 +5979,7 @@
         <v>3.0</v>
       </c>
       <c r="F131" t="n">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c r="G131" t="n">
         <v>886.0</v>
@@ -6020,7 +6020,7 @@
         <v>2.0</v>
       </c>
       <c r="F132" t="n">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c r="G132" t="n">
         <v>76.0</v>
@@ -6061,7 +6061,7 @@
         <v>3.0</v>
       </c>
       <c r="F133" t="n">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c r="G133" t="n">
         <v>97.0</v>
@@ -6102,7 +6102,7 @@
         <v>1.0</v>
       </c>
       <c r="F134" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="G134" t="n">
         <v>22.0</v>
@@ -6143,7 +6143,7 @@
         <v>3.0</v>
       </c>
       <c r="F135" t="n">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c r="G135" t="n">
         <v>439.0</v>
@@ -6184,7 +6184,7 @@
         <v>1.0</v>
       </c>
       <c r="F136" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="G136" t="n">
         <v>62.0</v>
@@ -6225,7 +6225,7 @@
         <v>2.0</v>
       </c>
       <c r="F137" t="n">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c r="G137" t="n">
         <v>96.0</v>
@@ -6266,7 +6266,7 @@
         <v>2.0</v>
       </c>
       <c r="F138" t="n">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c r="G138" t="n">
         <v>28.0</v>
@@ -6307,7 +6307,7 @@
         <v>2.0</v>
       </c>
       <c r="F139" t="n">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c r="G139" t="n">
         <v>59.0</v>
@@ -6348,7 +6348,7 @@
         <v>2.0</v>
       </c>
       <c r="F140" t="n">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c r="G140" t="n">
         <v>79.0</v>
@@ -6389,7 +6389,7 @@
         <v>3.0</v>
       </c>
       <c r="F141" t="n">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c r="G141" t="n">
         <v>742.0</v>
@@ -6430,7 +6430,7 @@
         <v>2.0</v>
       </c>
       <c r="F142" t="n">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c r="G142" t="n">
         <v>67.0</v>
@@ -6471,7 +6471,7 @@
         <v>1.0</v>
       </c>
       <c r="F143" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="G143" t="n">
         <v>37.0</v>
@@ -6512,7 +6512,7 @@
         <v>2.0</v>
       </c>
       <c r="F144" t="n">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c r="G144" t="n">
         <v>65.0</v>
@@ -6553,7 +6553,7 @@
         <v>2.0</v>
       </c>
       <c r="F145" t="n">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c r="G145" t="n">
         <v>127.0</v>
@@ -6594,7 +6594,7 @@
         <v>4.0</v>
       </c>
       <c r="F146" t="n">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c r="G146" t="n">
         <v>167.0</v>
@@ -6635,7 +6635,7 @@
         <v>2.0</v>
       </c>
       <c r="F147" t="n">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c r="G147" t="n">
         <v>41.0</v>
@@ -6676,7 +6676,7 @@
         <v>2.0</v>
       </c>
       <c r="F148" t="n">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c r="G148" t="n">
         <v>60.0</v>
@@ -6717,7 +6717,7 @@
         <v>1.0</v>
       </c>
       <c r="F149" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="G149" t="n">
         <v>62.0</v>
@@ -6758,7 +6758,7 @@
         <v>4.0</v>
       </c>
       <c r="F150" t="n">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c r="G150" t="n">
         <v>142.0</v>
@@ -6799,7 +6799,7 @@
         <v>2.0</v>
       </c>
       <c r="F151" t="n">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c r="G151" t="n">
         <v>76.0</v>
@@ -6840,7 +6840,7 @@
         <v>3.0</v>
       </c>
       <c r="F152" t="n">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c r="G152" t="n">
         <v>86.0</v>
@@ -6881,7 +6881,7 @@
         <v>1.0</v>
       </c>
       <c r="F153" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="G153" t="n">
         <v>74.0</v>
@@ -6922,7 +6922,7 @@
         <v>2.0</v>
       </c>
       <c r="F154" t="n">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c r="G154" t="n">
         <v>50.0</v>
@@ -6963,7 +6963,7 @@
         <v>2.0</v>
       </c>
       <c r="F155" t="n">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c r="G155" t="n">
         <v>61.0</v>
@@ -7004,7 +7004,7 @@
         <v>3.0</v>
       </c>
       <c r="F156" t="n">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c r="G156" t="n">
         <v>76.0</v>
@@ -7045,7 +7045,7 @@
         <v>4.0</v>
       </c>
       <c r="F157" t="n">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c r="G157" t="n">
         <v>202.0</v>
@@ -7086,7 +7086,7 @@
         <v>1.0</v>
       </c>
       <c r="F158" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="G158" t="n">
         <v>53.0</v>
@@ -7127,7 +7127,7 @@
         <v>4.0</v>
       </c>
       <c r="F159" t="n">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c r="G159" t="n">
         <v>472.0</v>
@@ -7168,7 +7168,7 @@
         <v>1.0</v>
       </c>
       <c r="F160" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="G160" t="n">
         <v>39.0</v>
@@ -7209,7 +7209,7 @@
         <v>2.0</v>
       </c>
       <c r="F161" t="n">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c r="G161" t="n">
         <v>82.0</v>
@@ -7250,7 +7250,7 @@
         <v>2.0</v>
       </c>
       <c r="F162" t="n">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c r="G162" t="n">
         <v>65.0</v>
@@ -7291,7 +7291,7 @@
         <v>2.0</v>
       </c>
       <c r="F163" t="n">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c r="G163" t="n">
         <v>32.0</v>
@@ -7332,7 +7332,7 @@
         <v>2.0</v>
       </c>
       <c r="F164" t="n">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c r="G164" t="n">
         <v>61.0</v>
@@ -7373,7 +7373,7 @@
         <v>2.0</v>
       </c>
       <c r="F165" t="n">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c r="G165" t="n">
         <v>111.0</v>
@@ -7414,7 +7414,7 @@
         <v>1.0</v>
       </c>
       <c r="F166" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="G166" t="n">
         <v>32.0</v>
@@ -7455,7 +7455,7 @@
         <v>3.0</v>
       </c>
       <c r="F167" t="n">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c r="G167" t="n">
         <v>279.0</v>
@@ -7496,7 +7496,7 @@
         <v>4.0</v>
       </c>
       <c r="F168" t="n">
-        <v>0.0</v>
+        <v>3.0</v>
       </c>
       <c r="G168" t="n">
         <v>208.0</v>
@@ -7537,7 +7537,7 @@
         <v>2.0</v>
       </c>
       <c r="F169" t="n">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c r="G169" t="n">
         <v>81.0</v>
@@ -7578,7 +7578,7 @@
         <v>1.0</v>
       </c>
       <c r="F170" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="G170" t="n">
         <v>28.0</v>
@@ -7619,7 +7619,7 @@
         <v>2.0</v>
       </c>
       <c r="F171" t="n">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c r="G171" t="n">
         <v>54.0</v>
@@ -7660,7 +7660,7 @@
         <v>3.0</v>
       </c>
       <c r="F172" t="n">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c r="G172" t="n">
         <v>506.0</v>
@@ -7701,7 +7701,7 @@
         <v>2.0</v>
       </c>
       <c r="F173" t="n">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c r="G173" t="n">
         <v>134.0</v>
@@ -7742,7 +7742,7 @@
         <v>1.0</v>
       </c>
       <c r="F174" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="G174" t="n">
         <v>35.0</v>
@@ -7783,7 +7783,7 @@
         <v>2.0</v>
       </c>
       <c r="F175" t="n">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c r="G175" t="n">
         <v>99.0</v>
@@ -7824,7 +7824,7 @@
         <v>3.0</v>
       </c>
       <c r="F176" t="n">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c r="G176" t="n">
         <v>94.0</v>
